--- a/biology/Médecine/Veine_anastomotique_supérieure/Veine_anastomotique_supérieure.xlsx
+++ b/biology/Médecine/Veine_anastomotique_supérieure/Veine_anastomotique_supérieure.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Veine_anastomotique_sup%C3%A9rieure</t>
+          <t>Veine_anastomotique_supérieure</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La veine anastomotique supérieure (ou veine de Trolard ou veine anastomotique antérieure de Trolard) est une veine du cerveau qui descend en avant du sillon central, puis le long du sillon latéral.
 Elle relie le sinus longitudinal supérieur au sinus caverneux.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Veine_anastomotique_sup%C3%A9rieure</t>
+          <t>Veine_anastomotique_supérieure</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La veine porte le nom de l'anatomiste du XVIIIe siècle Jean Baptiste Paulin Trolard.
  Portail de l’anatomie   Portail de la médecine                    </t>
